--- a/Jogos_do_Dia/2022-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.67</v>
@@ -695,28 +695,28 @@
         <v>3.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V3" t="n">
         <v>0.93</v>
@@ -805,28 +805,28 @@
         <v>2.64</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>6.75</v>
       </c>
       <c r="H4" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V4" t="n">
         <v>0.79</v>
@@ -915,28 +915,28 @@
         <v>3.22</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>2.14</v>
@@ -1025,28 +1025,28 @@
         <v>3.18</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.71</v>
@@ -1135,28 +1135,28 @@
         <v>3.32</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1283,22 +1283,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Aswan FC</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ceramica Cleopatra</t>
-        </is>
-      </c>
       <c r="F8" t="n">
-        <v>3.24</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1340,19 +1340,19 @@
         <v>1.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.52</v>
+        <v>0.85</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1417,16 +1417,16 @@
         <v>6.15</v>
       </c>
       <c r="K9" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="L9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M9" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="N9" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="O9" t="n">
         <v>1.55</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.12</v>
@@ -1527,16 +1527,16 @@
         <v>5.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L10" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="M10" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="N10" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="O10" t="n">
         <v>1.58</v>
@@ -1584,7 +1584,7 @@
         <v>2.95</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" t="n">
         <v>1.64</v>
@@ -1596,7 +1596,7 @@
         <v>2.67</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.12</v>
@@ -1640,13 +1640,13 @@
         <v>1.53</v>
       </c>
       <c r="L11" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="N11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O11" t="n">
         <v>1.6</v>
@@ -1694,7 +1694,7 @@
         <v>2.86</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE11" t="n">
         <v>1.51</v>
@@ -1706,7 +1706,7 @@
         <v>2.48</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.18</v>
+        <v>2.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
         <v>1.1</v>
@@ -1753,10 +1753,10 @@
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="N12" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>5.56</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
-        <v>9.42</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N14" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
